--- a/Question_Sets/Role-specific skills/Design Thinking.xlsx
+++ b/Question_Sets/Role-specific skills/Design Thinking.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'You have been hired as a product development manager at a company that specializes in developing camera accessories. The company is looking to expand its product line, and you have been tasked with brainstorming new ideas. Due to privacy concerns, access to customer data is limited.What would be the most effective method to gather insights on customer needs and preferences?', 'ques_type': 2, 'options': ['Organize a focus group with photographers to discuss their accessory usage.', 'Examine online product reviews of competing camera accessories.', 'Analyze advertisements related to photography on major social media platforms.', 'Interview the customer support manager about frequent product complaints.'], 'score': 'Organize a focus group with photographers to discuss their accessory usage.'}, {'title': 'You are part of a service quality team that recently conducted a customer feedback survey. The results show that customers are frustrated with the complex payment instructions. Your task is to draft a problem statement for an upcoming brainstorming session, aiming to clearly present the issue while encouraging creative solutions.What should your problem statement be?', 'ques_type': 2, 'options': ['Our customers need a virtual assistant to guide them through the payment process, as they prefer more support.', 'Our customers need visualized payment instructions, as the current instructions are misleading, causing errors and inconveniences.', 'Our customers need a way to complete payment quickly and easily, as they are overwhelmed by the complex payment information.', 'Our customers need a new payment system, as the current system is unable to efficiently support customers payments.'], 'score': 'Our customers need a way to complete payment quickly and easily, as they are overwhelmed by the complex payment information.'}, {'title': "You are a customer satisfaction manager, and your company's rating has declined. You have identified key customer pain points and plan to hold an ideation session to brainstorm solutions. Stakeholders want to participate, but they are unfamiliar with your new customer insights.Which ideation method should you use to ensure innovative outcomes that align with customer needs?", 'ques_type': 2, 'options': ['Ask participants to replicate past solutions that have successfully addressed customer pain points with additional optimisation improvements.', 'Ask participants to review competitors’ products that are successful in the market and adapt the ideas to your context.', 'Ask participants to role-play as customers in 2030 and formulate new concepts based on assumptions of their future needs.', 'Ask participants to reference the current customer journey map and brainstorm solutions relevant to the highlighted pain points.'], 'score': 'Ask participants to reference the current customer journey map and brainstorm solutions relevant to the highlighted pain points.'}, {'title': "As an app development manager, you are improving the onboarding experience of your company's mobile app. Your team has two new concepts to simplify and speed up onboarding. You want to gather user feedback to refine these concepts, but time and resources are limited.How should you effectively communicate these concepts to users for insightful feedback?", 'ques_type': 2, 'options': ['Create a title and short description that best represents each of the concepts on concept cards.', 'Create an audio recording narrating the key features and benefits of each new concept.', 'Create flow charts visualizing the thought processes behind developing each new concept.', 'Create visualizations of the new onboarding screens that will be seen on the mobile application.'], 'score': 'Create visualizations of the new onboarding screens that will be seen on the mobile application.'}]</t>
+    <t>questions = [
+    {
+        "title": "You have been hired as a product development manager at a company that specializes in developing camera accessories. The company is looking to expand its product line, and you have been tasked with brainstorming new ideas. Due to privacy concerns, access to customer data is limited.What would be the most effective method to gather insights on customer needs and preferences?",
+        "ques_type": 2,
+        "options": [
+            "Organize a focus group with photographers to discuss their accessory usage.",
+            "Examine online product reviews of competing camera accessories.",
+            "Analyze advertisements related to photography on major social media platforms.",
+            "Interview the customer support manager about frequent product complaints."
+        ],
+        "score": "Organize a focus group with photographers to discuss their accessory usage."
+    },
+    {
+        "title": "You are part of a service quality team that recently conducted a customer feedback survey. The results show that customers are frustrated with the complex payment instructions. Your task is to draft a problem statement for an upcoming brainstorming session, aiming to clearly present the issue while encouraging creative solutions.What should your problem statement be?",
+        "ques_type": 2,
+        "options": [
+            "Our customers need a virtual assistant to guide them through the payment process, as they prefer more support.",
+            "Our customers need visualized payment instructions, as the current instructions are misleading, causing errors and inconveniences.",
+            "Our customers need a way to complete payment quickly and easily, as they are overwhelmed by the complex payment information.",
+            "Our customers need a new payment system, as the current system is unable to efficiently support customers payments."
+        ],
+        "score": "Our customers need a way to complete payment quickly and easily, as they are overwhelmed by the complex payment information."
+    },
+    {
+        "title": "You are a customer satisfaction manager, and your company's rating has declined. You have identified key customer pain points and plan to hold an ideation session to brainstorm solutions. Stakeholders want to participate, but they are unfamiliar with your new customer insights.Which ideation method should you use to ensure innovative outcomes that align with customer needs?",
+        "ques_type": 2,
+        "options": [
+            "Ask participants to replicate past solutions that have successfully addressed customer pain points with additional optimisation improvements.",
+            "Ask participants to review competitors\u2019 products that are successful in the market and adapt the ideas to your context.",
+            "Ask participants to role-play as customers in 2030 and formulate new concepts based on assumptions of their future needs.",
+            "Ask participants to reference the current customer journey map and brainstorm solutions relevant to the highlighted pain points."
+        ],
+        "score": "Ask participants to reference the current customer journey map and brainstorm solutions relevant to the highlighted pain points."
+    },
+    {
+        "title": "As an app development manager, you are improving the onboarding experience of your company's mobile app. Your team has two new concepts to simplify and speed up onboarding. You want to gather user feedback to refine these concepts, but time and resources are limited.How should you effectively communicate these concepts to users for insightful feedback?",
+        "ques_type": 2,
+        "options": [
+            "Create a title and short description that best represents each of the concepts on concept cards.",
+            "Create an audio recording narrating the key features and benefits of each new concept.",
+            "Create flow charts visualizing the thought processes behind developing each new concept.",
+            "Create visualizations of the new onboarding screens that will be seen on the mobile application."
+        ],
+        "score": "Create visualizations of the new onboarding screens that will be seen on the mobile application."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
